--- a/数据整理/stocks/其他/DRE-杜克房地产公司.xlsx
+++ b/数据整理/stocks/其他/DRE-杜克房地产公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/DRE-杜克房地产公司.xlsx
+++ b/数据整理/stocks/其他/DRE-杜克房地产公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -802,4 +803,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/DRE-杜克房地产公司.xlsx
+++ b/数据整理/stocks/其他/DRE-杜克房地产公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/DRE-杜克房地产公司.xlsx
+++ b/数据整理/stocks/其他/DRE-杜克房地产公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,17 +918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -937,7 +958,81 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -953,7 +1048,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -969,7 +1064,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -985,13 +1080,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/DRE-杜克房地产公司.xlsx
+++ b/数据整理/stocks/其他/DRE-杜克房地产公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1001,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,17 +1013,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1032,14 +1053,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -1048,7 +1143,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1064,7 +1159,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1080,7 +1175,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1096,13 +1191,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/DRE-杜克房地产公司.xlsx
+++ b/数据整理/stocks/其他/DRE-杜克房地产公司.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1143,14 +1186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
+          <t>013404</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1159,7 +1224,113 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>096001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1175,7 +1346,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1191,7 +1362,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1207,13 +1378,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/DRE-杜克房地产公司.xlsx
+++ b/数据整理/stocks/其他/DRE-杜克房地产公司.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,167 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006283</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华美国房地产 (QDII)美元现钞</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0373</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>206011</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华美国房地产 (QDII)人民币</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0373</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>320017</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺安全球收益不动产(QDII)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0238</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -627,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -688,26 +666,102 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.86</t>
+          <t>84.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0253</t>
+          <t>0.0143</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013404</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>096001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +796,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -782,26 +836,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0284</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +890,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -876,22 +930,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>93.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.08</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0291</t>
+          <t>0.0310</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -930,7 +984,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -970,22 +1024,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>9.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0310</t>
+          <t>0.0291</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1024,7 +1078,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1064,26 +1118,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>93.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0284</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1118,7 +1172,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1158,102 +1212,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.60</t>
+          <t>89.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0143</t>
+          <t>0.0253</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>013404</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成标普500等权重指数（QDII）美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.98</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>096001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成标普500等权重指数(QDII)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.98</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1267,144 +1245,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
+          <t>006283</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华美国房地产 (QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>206011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华美国房地产 (QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+          <t>320017</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安全球收益不动产(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>